--- a/public/TemplateFileReport/InfoStudents.xlsx
+++ b/public/TemplateFileReport/InfoStudents.xlsx
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +70,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,30 +111,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,23 +472,23 @@
   <dimension ref="F4:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="6:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="7" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
@@ -471,6 +507,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
@@ -478,9 +515,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
@@ -489,8 +527,9 @@
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>
@@ -499,8 +538,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
@@ -509,8 +549,9 @@
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
@@ -519,8 +560,9 @@
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
@@ -529,8 +571,9 @@
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
@@ -539,8 +582,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F15" s="3"/>
@@ -549,8 +593,9 @@
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
@@ -559,72 +604,66 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
     <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
@@ -632,6 +671,15 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
@@ -648,18 +696,19 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
